--- a/API_Templete_bunjang.xlsx
+++ b/API_Templete_bunjang.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimmingyu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimmingyu/Desktop/rc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B19AA9-6F2E-984B-9019-893C7FB517D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380AC19E-E82E-564B-B451-6BB8E5467D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="API Index" sheetId="2" r:id="rId1"/>
-    <sheet name="1" sheetId="3" r:id="rId2"/>
-    <sheet name="2" sheetId="4" r:id="rId3"/>
-    <sheet name="3" sheetId="5" r:id="rId4"/>
+    <sheet name="인수인계 사항" sheetId="6" r:id="rId1"/>
+    <sheet name="API Index" sheetId="2" r:id="rId2"/>
+    <sheet name="게시글 작성" sheetId="3" r:id="rId3"/>
+    <sheet name="2" sheetId="4" r:id="rId4"/>
+    <sheet name="3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="210">
   <si>
     <t>API 명세서</t>
   </si>
@@ -36,9 +37,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>api-dev.softsquared.com</t>
-  </si>
-  <si>
     <t>RESTful API</t>
   </si>
   <si>
@@ -66,33 +64,18 @@
     <t>POST</t>
   </si>
   <si>
-    <t>/app/users</t>
-  </si>
-  <si>
-    <t>유저 생성 API (회원가입)</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
     <t>GET</t>
   </si>
   <si>
-    <t>전체 유저 조회 API (+검색)</t>
-  </si>
-  <si>
     <t>/app/users/:userId</t>
   </si>
   <si>
     <t>특정 유저 조회 API</t>
   </si>
   <si>
-    <t>유저 생성 API</t>
-  </si>
-  <si>
-    <t>API 인덱스</t>
-  </si>
-  <si>
     <t>Header</t>
   </si>
   <si>
@@ -114,21 +97,12 @@
     <t>Body</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>"grace"</t>
-  </si>
-  <si>
-    <t>유저 이름</t>
-  </si>
-  <si>
     <t>Query String</t>
   </si>
   <si>
@@ -138,35 +112,9 @@
     <t>result</t>
   </si>
   <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>ㄴ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>id</t>
-    </r>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
-    <t>유저 식별자</t>
-  </si>
-  <si>
     <t>ㄴname</t>
   </si>
   <si>
@@ -188,61 +136,13 @@
     <t>message</t>
   </si>
   <si>
-    <t>모든 유저 조회 성공</t>
-  </si>
-  <si>
     <t>응답 메시지</t>
   </si>
   <si>
     <t>Response Sample</t>
   </si>
   <si>
-    <t>{   
-    "isSuccess": true,
-    "code": 100,
-    "message": "검색 성공"
-    "result": [
-        {
-            "id": 2,
-            "name": "sky",
-            "email": "sky@gmail.com",
-            "password": 987654321,
-            "admin": "U"
-        },
-        {
-            "id": 19,
-            "name": "jerry",
-            "email": "jerry@gmail.com",
-            "password": "aksjdlakjwlkj",
-            "admin": "U"
-        }
-    ]
-}</t>
-  </si>
-  <si>
     <t>Result Code</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 유저 조회 성공</t>
-    </r>
-  </si>
-  <si>
-    <t>유저 검색 성공</t>
   </si>
   <si>
     <t>/user/:userId/friends</t>
@@ -328,14 +228,934 @@
       </rPr>
       <t>profileImageUrl</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Spec</t>
+  </si>
+  <si>
+    <t>t2.micro</t>
+  </si>
+  <si>
+    <t>mysql 5.7.21</t>
+  </si>
+  <si>
+    <t>Ip</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>ubuntu</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>(pem)</t>
+  </si>
+  <si>
+    <t>접속정보</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>ubuntu16.04</t>
+  </si>
+  <si>
+    <t>WebServer</t>
+  </si>
+  <si>
+    <t>nginx1.10.3</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Backend-Language</t>
+  </si>
+  <si>
+    <t>php7.0.25</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>(root 동일)</t>
+  </si>
+  <si>
+    <t>AWS Account</t>
+  </si>
+  <si>
+    <t>PhpMyAdmin</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Server Url</t>
+  </si>
+  <si>
+    <t>Naver Account</t>
+  </si>
+  <si>
+    <t>Android Url</t>
+  </si>
+  <si>
+    <t>Apk</t>
+  </si>
+  <si>
+    <t>Web Url</t>
+  </si>
+  <si>
+    <t>API_KEY</t>
+  </si>
+  <si>
+    <t>Google Account</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>nginx</t>
+  </si>
+  <si>
+    <t>/etc/nginx/</t>
+  </si>
+  <si>
+    <t>웹 서버 설정 파일 경로</t>
+  </si>
+  <si>
+    <t>/var/www/html/</t>
+  </si>
+  <si>
+    <t>소스파일 위치 경로</t>
+  </si>
+  <si>
+    <t>service nginx start|restart|status</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>/etc/mysql</t>
+  </si>
+  <si>
+    <t>DB 설정 파일 경로</t>
+  </si>
+  <si>
+    <t>pw</t>
+  </si>
+  <si>
+    <t>service mysql start|restart|status</t>
+  </si>
+  <si>
+    <t>Facebook Account</t>
+  </si>
+  <si>
+    <t>Naver API</t>
+  </si>
+  <si>
+    <t>Client ID</t>
+  </si>
+  <si>
+    <t>Client Secret</t>
+  </si>
+  <si>
+    <t>Kakao Account</t>
+  </si>
+  <si>
+    <t>Kakao API</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Facebook API</t>
+  </si>
+  <si>
+    <t>App Key Hash</t>
+  </si>
+  <si>
+    <t>facebook_app_id</t>
+  </si>
+  <si>
+    <t>fb_login_protocol_scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">무시하셔도 됩니다. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/posts/:userIdx/new</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 작성</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>mindev.shop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/posts/search?query={query}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 검색</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/posts/new</t>
+  </si>
+  <si>
+    <t>상품리스트조회 api</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mandatory</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>postContent</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueryString</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path Variables</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response Parameters</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSuccess</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 성공 여부</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 코드</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청에 성공하였습니다.</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 메시지</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "isSuccess": true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "code": 1000,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "message": "요청에 성공하였습니다.",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "result": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "post_idx": 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>Result Code</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>userIdx</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>postImg_url</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeRegion</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>categoryIdx</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>hashTagName</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliveryFee</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodStatus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchange</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>payStatus</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>postTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;String&gt;</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>postIdx</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 url 리스트</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래지역</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 제목</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 내용</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 카테고리</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>해시태그 리스트</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달비 포함여부</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>중고상품인지 새상품인지</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>교환 가능여부</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>번개페이 가능여부</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Sample</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"postImg_url"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTl-FrXpdUtIR5iCeVZCp4dGIh3uiENuo9OHg&amp;usqp=CAU"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQKtQope-BdIw_CFcgjw_MWsYKJC4BchgE7ow&amp;usqp=CAU"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"tradeRegion"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"시흥시 신천동"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"postTitle"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"test"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"postContent"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"testContent"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"categoryIdx"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"hashTagName"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"삼성전자"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"삼성"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"price"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"deliveryFee"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"N"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"quantity"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF098658"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"prodStatus"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"중고상품"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"exchange"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"불가"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"payStatus"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"N"</t>
+    </r>
+  </si>
+  <si>
+    <t>상품 사진을 등록해주세요.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리를 선택해주세요.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명을 2글자 이상 입력해주세요.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그를 입력해주세요.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격을 입력해주세요.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100원 이상 입력해주세요.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -357,12 +1177,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <strike/>
       <sz val="10"/>
       <color theme="1"/>
@@ -376,13 +1190,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -390,19 +1197,6 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -430,8 +1224,83 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="35"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Batang"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6897BB"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA31515"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0451A5"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF098658"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +1317,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF3FE"/>
+        <bgColor rgb="FFEAF3FE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -523,10 +1404,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,15 +1430,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -566,25 +1447,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{3A3EDF37-E77D-A14D-9543-9220AB035EE8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -796,13 +1721,594 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0245318-0608-D640-B277-5EBA3ABF9F40}">
+  <dimension ref="A1:J42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="29"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="34"/>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="29">
+        <v>3306</v>
+      </c>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="31"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="31"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="31"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="31"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="31"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="31"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="31"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="31"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="31"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="31"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B36:F42"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -853,13 +2359,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
+      <c r="C3" s="38" t="s">
+        <v>119</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="1"/>
       <c r="F3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="4"/>
@@ -885,7 +2391,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1"/>
@@ -902,24 +2408,26 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="39" t="s">
+        <v>118</v>
+      </c>
       <c r="K6" s="8"/>
       <c r="L6" s="1"/>
     </row>
@@ -931,22 +2439,20 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
@@ -957,13 +2463,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>16</v>
+      <c r="F8" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>121</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -979,13 +2485,13 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -997,11 +2503,11 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="4"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1135,10 +2641,10 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="1"/>
@@ -1149,10 +2655,10 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="1"/>
@@ -1182,10 +2688,10 @@
       <c r="F23" s="1"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="17"/>
+      <c r="L23" s="16"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
@@ -1196,10 +2702,10 @@
       <c r="F24" s="1"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="17"/>
+      <c r="L24" s="16"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
@@ -1210,10 +2716,10 @@
       <c r="F25" s="1"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="17"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="17"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
@@ -1224,10 +2730,10 @@
       <c r="F26" s="1"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="17"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="17"/>
+      <c r="L26" s="16"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
@@ -7192,24 +8698,21 @@
       <c r="I1000" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F7" location="1!A1" display="/app/users" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:F41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -7217,168 +8720,174 @@
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="5" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="A1" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="1"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="46" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="J10" s="50"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -7386,16 +8895,24 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="3"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="J11" s="50"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -7403,30 +8920,24 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="3"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" s="50"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -7434,326 +8945,402 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="46" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="46" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="46" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="1"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="46" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="1"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="46" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="19">
-        <v>2</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="1"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="46" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="1"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="46" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="4" t="b">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="18">
-        <v>100</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G35" s="42">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42" t="s">
+        <v>148</v>
+      </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -7773,15 +9360,25 @@
       <c r="Z35" s="5"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42" t="s">
+        <v>152</v>
+      </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -7801,15 +9398,15 @@
       <c r="Z36" s="5"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -7829,26 +9426,30 @@
       <c r="Z37" s="5"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -7868,15 +9469,17 @@
       <c r="Z39" s="5"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -7896,177 +9499,316 @@
       <c r="Z40" s="5"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="18">
-        <v>100</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="18">
-        <v>101</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="C48" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="42">
+        <v>1000</v>
+      </c>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="42">
+        <v>2021</v>
+      </c>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" s="42">
+        <v>2018</v>
+      </c>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="E52" s="42">
+        <v>2019</v>
+      </c>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1">
+      <c r="C53" s="42"/>
+      <c r="D53" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" s="48">
+        <v>2022</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1">
+      <c r="C54" s="42"/>
+      <c r="D54" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="E54" s="48">
+        <v>2020</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1">
+      <c r="C55" s="42"/>
+      <c r="D55" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="E55" s="48">
+        <v>2023</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1">
+      <c r="C57" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1">
+      <c r="C58" s="1"/>
+      <c r="D58" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1">
+      <c r="C59" s="1"/>
+      <c r="D59" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1">
+      <c r="C60" s="1"/>
+      <c r="D60" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1">
+      <c r="C61" s="1"/>
+      <c r="D61" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1">
+      <c r="D62" s="47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1">
+      <c r="D63" s="47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1">
+      <c r="D64" s="47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D65" s="47" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D66" s="47" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D67" s="47" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D68" s="47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D69" s="47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D70" s="52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="72" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="73" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="74" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="75" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="76" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="77" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="78" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="79" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="80" spans="4:4" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -8988,19 +10730,13 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C29:F41"/>
-  </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C1" location="API Index!A1" display="API 인덱스" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-  </hyperlinks>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9020,10 +10756,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -9047,10 +10783,10 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -9073,7 +10809,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -9087,22 +10823,22 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -9120,7 +10856,7 @@
     <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -9134,22 +10870,22 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -9190,7 +10926,7 @@
     <row r="12" spans="1:15" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -9210,22 +10946,22 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -9233,13 +10969,13 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -9249,7 +10985,7 @@
     <row r="15" spans="1:15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -9263,22 +10999,22 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -9286,13 +11022,13 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -9300,16 +11036,16 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>61</v>
+        <v>23</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -9317,16 +11053,16 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -9334,16 +11070,16 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -9351,13 +11087,13 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I21" s="1"/>
     </row>
@@ -9370,60 +11106,60 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F23" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="18">
+        <v>23</v>
+      </c>
+      <c r="F24" s="17">
         <v>100</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -9438,7 +11174,7 @@
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -9451,12 +11187,12 @@
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
+      <c r="C29" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -9464,10 +11200,10 @@
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -9475,10 +11211,10 @@
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -9486,10 +11222,10 @@
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -9497,10 +11233,10 @@
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -9508,37 +11244,37 @@
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -9551,10 +11287,10 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -9564,11 +11300,11 @@
     <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="18">
+      <c r="C39" s="17">
         <v>100</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -9578,11 +11314,11 @@
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="18">
+      <c r="C40" s="17">
         <v>200</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -9592,11 +11328,11 @@
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="18">
+      <c r="C41" s="17">
         <v>207</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -10626,7 +12362,7 @@
   <mergeCells count="1">
     <mergeCell ref="C29:F36"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F18" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
@@ -10635,14 +12371,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -10657,10 +12393,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -10684,10 +12420,10 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -10710,7 +12446,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -10724,22 +12460,22 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -10757,7 +12493,7 @@
     <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -10771,22 +12507,22 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -10844,7 +12580,7 @@
     <row r="13" spans="1:15" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -10858,22 +12594,22 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -10891,7 +12627,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -10905,22 +12641,22 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -10928,30 +12664,30 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="32" t="s">
-        <v>74</v>
+      <c r="C19" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>61</v>
+        <v>23</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -10959,16 +12695,16 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -10976,16 +12712,16 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I21" s="1"/>
     </row>
@@ -10993,13 +12729,13 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -11012,60 +12748,60 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F24" s="4" t="b">
         <v>1</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="18">
+        <v>23</v>
+      </c>
+      <c r="F25" s="17">
         <v>100</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I26" s="1"/>
     </row>
@@ -11080,7 +12816,7 @@
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -11093,12 +12829,12 @@
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="24"/>
+      <c r="C30" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -11106,10 +12842,10 @@
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -11117,10 +12853,10 @@
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -11128,10 +12864,10 @@
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -11139,47 +12875,47 @@
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="27"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -11192,10 +12928,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -11205,11 +12941,11 @@
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="18">
+      <c r="C40" s="17">
         <v>100</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -11219,11 +12955,11 @@
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="18">
+      <c r="C41" s="17">
         <v>200</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -11234,11 +12970,11 @@
     <row r="42" spans="1:9" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="18">
+      <c r="C42" s="17">
         <v>207</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -12265,7 +14001,7 @@
   <mergeCells count="1">
     <mergeCell ref="C30:F37"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F19" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>

--- a/API_Templete_bunjang.xlsx
+++ b/API_Templete_bunjang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimmingyu/Desktop/rc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380AC19E-E82E-564B-B451-6BB8E5467D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0346B41-80F7-624A-A60E-B3CC2A699156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인수인계 사항" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="210">
   <si>
     <t>API 명세서</t>
   </si>
@@ -425,9 +425,6 @@
   <si>
     <t>게시글 검색</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/app/posts/new</t>
   </si>
   <si>
     <t>상품리스트조회 api</t>
@@ -1148,6 +1145,10 @@
   </si>
   <si>
     <t>100원 이상 입력해주세요.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 가능한 사진 갯수를 초과하였습니다.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8711,16 +8712,16 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="27.5" customWidth="1"/>
     <col min="9" max="9" width="21.6640625" customWidth="1"/>
@@ -8728,10 +8729,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
       <c r="A1" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>122</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>123</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -8756,10 +8757,10 @@
       <c r="A3" s="42"/>
       <c r="B3" s="42"/>
       <c r="C3" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>125</v>
       </c>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
@@ -8782,25 +8783,25 @@
       <c r="A5" s="42"/>
       <c r="B5" s="42"/>
       <c r="C5" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="E5" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="F5" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="G5" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="H5" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="I5" s="42" t="s">
         <v>131</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1">
@@ -8829,25 +8830,25 @@
       <c r="A8" s="42"/>
       <c r="B8" s="42"/>
       <c r="C8" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="F8" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="G8" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="H8" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="I8" s="42" t="s">
         <v>131</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1">
@@ -8855,18 +8856,18 @@
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
       <c r="D9" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
       <c r="I9" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
@@ -8874,18 +8875,18 @@
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
       <c r="D10" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
       <c r="I10" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J10" s="50"/>
       <c r="K10" s="1"/>
@@ -8899,18 +8900,18 @@
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="48" t="s">
-        <v>176</v>
-      </c>
       <c r="F11" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
       <c r="I11" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J11" s="50"/>
       <c r="K11" s="1"/>
@@ -8924,18 +8925,18 @@
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
       <c r="D12" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J12" s="50"/>
       <c r="K12" s="1"/>
@@ -8949,18 +8950,18 @@
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
       <c r="D13" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="42" t="s">
         <v>134</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>135</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J13" s="50"/>
     </row>
@@ -8969,18 +8970,18 @@
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
       <c r="D14" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
       <c r="I14" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1">
@@ -8988,18 +8989,18 @@
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
       <c r="D15" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="42" t="s">
         <v>134</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>135</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
       <c r="I15" s="46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1">
@@ -9007,18 +9008,18 @@
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
       <c r="D16" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
       <c r="I16" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -9026,18 +9027,18 @@
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
       <c r="D17" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E17" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="46" t="s">
         <v>164</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>165</v>
       </c>
       <c r="G17" s="42"/>
       <c r="H17" s="42"/>
       <c r="I17" s="46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
@@ -9045,18 +9046,18 @@
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
       <c r="D18" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
       <c r="I18" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -9064,18 +9065,18 @@
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
       <c r="D19" s="46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
       <c r="I19" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
@@ -9083,18 +9084,18 @@
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
       <c r="D20" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G20" s="42"/>
       <c r="H20" s="42"/>
       <c r="I20" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
@@ -9112,25 +9113,25 @@
       <c r="A22" s="42"/>
       <c r="B22" s="42"/>
       <c r="C22" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D22" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="F22" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="G22" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="H22" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="H22" s="42" t="s">
+      <c r="I22" s="42" t="s">
         <v>131</v>
-      </c>
-      <c r="I22" s="42" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
@@ -9170,25 +9171,25 @@
       <c r="A26" s="42"/>
       <c r="B26" s="42"/>
       <c r="C26" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="F26" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="G26" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="G26" s="42" t="s">
+      <c r="H26" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="H26" s="42" t="s">
+      <c r="I26" s="42" t="s">
         <v>131</v>
-      </c>
-      <c r="I26" s="42" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
@@ -9196,13 +9197,13 @@
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
       <c r="D27" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="F27" s="46" t="s">
         <v>164</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>165</v>
       </c>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
@@ -9234,25 +9235,25 @@
       <c r="A30" s="42"/>
       <c r="B30" s="42"/>
       <c r="C30" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="F30" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="G30" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="G30" s="42" t="s">
+      <c r="H30" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="H30" s="42" t="s">
+      <c r="I30" s="42" t="s">
         <v>131</v>
-      </c>
-      <c r="I30" s="42" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
@@ -9260,13 +9261,13 @@
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
       <c r="D31" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="E31" s="42" t="s">
-        <v>143</v>
-      </c>
       <c r="F31" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
@@ -9277,13 +9278,13 @@
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
       <c r="D32" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E32" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="42" t="s">
         <v>134</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>135</v>
       </c>
       <c r="G32" s="42"/>
       <c r="H32" s="42"/>
@@ -9305,20 +9306,20 @@
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
       <c r="D34" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E34" s="42" t="s">
-        <v>145</v>
-      </c>
       <c r="F34" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G34" s="42" t="b">
         <v>1</v>
       </c>
       <c r="H34" s="42"/>
       <c r="I34" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
@@ -9326,20 +9327,20 @@
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
       <c r="D35" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E35" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="42" t="s">
         <v>134</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>135</v>
       </c>
       <c r="G35" s="42">
         <v>1000</v>
       </c>
       <c r="H35" s="42"/>
       <c r="I35" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -9364,20 +9365,20 @@
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
       <c r="D36" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="F36" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="42" t="s">
         <v>150</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" s="42" t="s">
-        <v>151</v>
       </c>
       <c r="H36" s="42"/>
       <c r="I36" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
@@ -9443,7 +9444,7 @@
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
       <c r="D39" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E39" s="42"/>
       <c r="F39" s="42"/>
@@ -9473,7 +9474,7 @@
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
       <c r="D40" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E40" s="42"/>
       <c r="F40" s="42"/>
@@ -9503,7 +9504,7 @@
       <c r="B41" s="42"/>
       <c r="C41" s="42"/>
       <c r="D41" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E41" s="42"/>
       <c r="F41" s="42"/>
@@ -9516,7 +9517,7 @@
       <c r="B42" s="42"/>
       <c r="C42" s="42"/>
       <c r="D42" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E42" s="42"/>
       <c r="F42" s="42"/>
@@ -9529,7 +9530,7 @@
       <c r="B43" s="42"/>
       <c r="C43" s="42"/>
       <c r="D43" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E43" s="42"/>
       <c r="F43" s="42"/>
@@ -9542,7 +9543,7 @@
       <c r="B44" s="42"/>
       <c r="C44" s="42"/>
       <c r="D44" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E44" s="42"/>
       <c r="F44" s="42"/>
@@ -9555,7 +9556,7 @@
       <c r="B45" s="42"/>
       <c r="C45" s="42"/>
       <c r="D45" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E45" s="42"/>
       <c r="F45" s="42"/>
@@ -9568,7 +9569,7 @@
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
       <c r="D46" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E46" s="42"/>
       <c r="F46" s="42"/>
@@ -9591,13 +9592,13 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="42" t="s">
-        <v>162</v>
-      </c>
       <c r="E48" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
@@ -9609,7 +9610,7 @@
       <c r="B49" s="1"/>
       <c r="C49" s="42"/>
       <c r="D49" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E49" s="42">
         <v>1000</v>
@@ -9624,7 +9625,7 @@
       <c r="B50" s="1"/>
       <c r="C50" s="42"/>
       <c r="D50" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E50" s="42">
         <v>2021</v>
@@ -9639,7 +9640,7 @@
       <c r="B51" s="1"/>
       <c r="C51" s="42"/>
       <c r="D51" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E51" s="42">
         <v>2018</v>
@@ -9654,7 +9655,7 @@
       <c r="B52" s="1"/>
       <c r="C52" s="42"/>
       <c r="D52" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E52" s="42">
         <v>2019</v>
@@ -9667,7 +9668,7 @@
     <row r="53" spans="1:9" ht="15.75" customHeight="1">
       <c r="C53" s="42"/>
       <c r="D53" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E53" s="48">
         <v>2022</v>
@@ -9680,7 +9681,7 @@
     <row r="54" spans="1:9" ht="15.75" customHeight="1">
       <c r="C54" s="42"/>
       <c r="D54" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E54" s="48">
         <v>2020</v>
@@ -9693,7 +9694,7 @@
     <row r="55" spans="1:9" ht="15.75" customHeight="1">
       <c r="C55" s="42"/>
       <c r="D55" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E55" s="48">
         <v>2023</v>
@@ -9703,30 +9704,32 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="E56" s="48">
+        <v>2024</v>
+      </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C57" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>153</v>
-      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C58" s="1"/>
-      <c r="D58" s="47" t="s">
-        <v>192</v>
+      <c r="C58" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D58" s="52" t="s">
+        <v>152</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -9736,70 +9739,76 @@
     <row r="59" spans="1:9" ht="15.75" customHeight="1">
       <c r="C59" s="1"/>
       <c r="D59" s="47" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1">
       <c r="C60" s="1"/>
       <c r="D60" s="47" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1">
       <c r="C61" s="1"/>
       <c r="D61" s="47" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1">
+      <c r="C62" s="1"/>
       <c r="D62" s="47" t="s">
-        <v>196</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1">
       <c r="D63" s="47" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1">
       <c r="D64" s="47" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="4:4" ht="15.75" customHeight="1">
       <c r="D65" s="47" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="4:4" ht="15.75" customHeight="1">
       <c r="D66" s="47" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="4:4" ht="15.75" customHeight="1">
       <c r="D67" s="47" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="4:4" ht="15.75" customHeight="1">
       <c r="D68" s="47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="4:4" ht="15.75" customHeight="1">
       <c r="D69" s="47" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="4:4" ht="15.75" customHeight="1">
-      <c r="D70" s="52" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4" ht="15.75" customHeight="1"/>
+      <c r="D70" s="47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D71" s="52" t="s">
+        <v>159</v>
+      </c>
+    </row>
     <row r="72" spans="4:4" ht="15.75" customHeight="1"/>
     <row r="73" spans="4:4" ht="15.75" customHeight="1"/>
     <row r="74" spans="4:4" ht="15.75" customHeight="1"/>
